--- a/Set Parser/COX_SETS.xlsx
+++ b/Set Parser/COX_SETS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madat\Projects\Advising\advising\Set Parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B492789-A0B3-4155-8D76-920B0F95C8C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23520103-F3F3-4A47-B6D3-28BA7D94960E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9648" xr2:uid="{5325EC46-E8BB-704B-B683-FFE984886ED0}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="136">
   <si>
     <t>Accounting, B.B.A.</t>
   </si>
@@ -129,6 +129,315 @@
   </si>
   <si>
     <t>3 SET 2: ELECTIVE</t>
+  </si>
+  <si>
+    <t>Note: Management science/business double majors take ITOM 2308 and either STRA 5370 or CISB 5397; however, they take EMIS 3360 and EMIS 3362 instead of ITOM 3306.</t>
+  </si>
+  <si>
+    <t>6 SET 3: ELECTIVES</t>
+  </si>
+  <si>
+    <t>(3 SET 2 AND 3 SET 3) OR (6 SET 3): ELECTIVES</t>
+  </si>
+  <si>
+    <t>SPECIAL REQUIREMENTS</t>
+  </si>
+  <si>
+    <t>SET 2: FINANCE CORE</t>
+  </si>
+  <si>
+    <t>SET 1: REAL ESTATE CORE</t>
+  </si>
+  <si>
+    <t>SET 1: ACCOUNTING CORE</t>
+  </si>
+  <si>
+    <t>(6 SET 3) OR (3 SET 3 AND 3 SET 4): ELECTIVES</t>
+  </si>
+  <si>
+    <t>ADV 1341 substitutes for MKTG 3340 for advertising majors or minors only.</t>
+  </si>
+  <si>
+    <t>SET 1 OR (3 SET 1 AND 3 SET 2): MANAGEMENT COURSES</t>
+  </si>
+  <si>
+    <t>3 SET 3: ADDITIONAL COURSES</t>
+  </si>
+  <si>
+    <t>(6 SET 4) OR (3 SET 4 AND 3 SET 5): ELECTIVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET 3 END </t>
+  </si>
+  <si>
+    <t>SET 1 AND 3 SET 2: CORE COURSES</t>
+  </si>
+  <si>
+    <t>3 SET 1 AND SET 2 AND 3 SET 3: CORE COURSES</t>
+  </si>
+  <si>
+    <t>RMI 3360 - Principles of Risk Management</t>
+  </si>
+  <si>
+    <t>MNO 4361 - Project Management</t>
+  </si>
+  <si>
+    <t>SET 4 END</t>
+  </si>
+  <si>
+    <t>MNO 3373 - Negotiations</t>
+  </si>
+  <si>
+    <t>MNO 4372 - Leadership and Culture in the Southwest (if not taken for core requirement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET 5 END </t>
+  </si>
+  <si>
+    <t>SET 1 AND (0 SET 2 OR 1 SET 2): MARKETING CORE</t>
+  </si>
+  <si>
+    <t>MNO 4371 - Leadership and Culture</t>
+  </si>
+  <si>
+    <t>STAT 4340 - Statistical Methods for Engineers and Applied Scientists </t>
+  </si>
+  <si>
+    <t>BUSE 2301 - Life Cycle Economics: Personal Financial Planning for Today and Tomorrow</t>
+  </si>
+  <si>
+    <t>SET 4 START</t>
+  </si>
+  <si>
+    <t>CSE 4340 - Statistical Methods for Engineers and Applied Scientists  </t>
+  </si>
+  <si>
+    <t>FINA 3312 - Personal Finance</t>
+  </si>
+  <si>
+    <t>EMIS 3340 - Statistical Methods for Engineering and Applied Scientists</t>
+  </si>
+  <si>
+    <t>SET 5 START</t>
+  </si>
+  <si>
+    <t>SET 3 END</t>
+  </si>
+  <si>
+    <t>STRA 5370 - Strategic Management in a Global Economy (if senior core is completed with CISB 5397)</t>
+  </si>
+  <si>
+    <t>STAT 2331 - Introduction to Statistical Methods</t>
+  </si>
+  <si>
+    <t>MKTG 5345 - Honors Marketing Practicum</t>
+  </si>
+  <si>
+    <t>ITOM 4307 - Business Modeling with Spreadsheets (ACCT 4307 will not count for the major)</t>
+  </si>
+  <si>
+    <t>ITOM 2305 - Managerial Statistics</t>
+  </si>
+  <si>
+    <t>CISB 2388 - Entrepreneurship Concepts</t>
+  </si>
+  <si>
+    <t>MKTG 4345 - Sports Marketing</t>
+  </si>
+  <si>
+    <t>CISB 5397 - Entrepreneurship: Starting a Business (if senior core is completed with STRA 5370)</t>
+  </si>
+  <si>
+    <t>SET 3 START</t>
+  </si>
+  <si>
+    <t>BUSE 3310 - Markets and Freedom</t>
+  </si>
+  <si>
+    <t>SET 1 AND 3 SET 2: REQUIREMENTS</t>
+  </si>
+  <si>
+    <t>MKTG 3350 - Digital and Social Media Marketing</t>
+  </si>
+  <si>
+    <t>CISB 4398 - Managing the Entrepreneurial Business</t>
+  </si>
+  <si>
+    <t>BL 3310 - Business Law Concepts</t>
+  </si>
+  <si>
+    <t>MKTG 3349 - Product and Brand Management</t>
+  </si>
+  <si>
+    <t>CISB 2379 - Identifying Entrepreneurial Opportunities</t>
+  </si>
+  <si>
+    <t>CISB 5397 - Entrepreneurship: Starting a Business</t>
+  </si>
+  <si>
+    <t>BUSE 4332 - Energy and Environmental Law</t>
+  </si>
+  <si>
+    <t>MKTG 3348 - International Marketing</t>
+  </si>
+  <si>
+    <t>RMI 4340 - Employee Benefits</t>
+  </si>
+  <si>
+    <t>STRA 5370 - Strategic Management in a Global Economy</t>
+  </si>
+  <si>
+    <t>BUSE 3300 - Evolution of American Capitalism</t>
+  </si>
+  <si>
+    <t>MKTG 3346 - Retailing</t>
+  </si>
+  <si>
+    <t>MNO 4330 - Introduction to Consulting and Change Management</t>
+  </si>
+  <si>
+    <t>ADV 1341 - Marketing Principles of Advertising (for advertising majors and minors only)</t>
+  </si>
+  <si>
+    <t>MKTG 3345 - Sales and Distribution Management</t>
+  </si>
+  <si>
+    <t>MNO 3375 - Corporate Social Responsibility and Ethical Leadership</t>
+  </si>
+  <si>
+    <t>SET 1: REQUIREMENTS</t>
+  </si>
+  <si>
+    <t>MKTG 3310 - Marketing Concepts</t>
+  </si>
+  <si>
+    <t>MKTG 3340 - Fundamentals of Marketing</t>
+  </si>
+  <si>
+    <t>MNO 3370 - Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET 1: REQUIREMENTS </t>
+  </si>
+  <si>
+    <t>ITOM 4307 - Business Modeling with Spreadsheets</t>
+  </si>
+  <si>
+    <t>SET 2 END</t>
+  </si>
+  <si>
+    <t>MKTG 5150 - Marketing Internship</t>
+  </si>
+  <si>
+    <t>ITOM 3306 - Operations Management</t>
+  </si>
+  <si>
+    <t>MNO 3310 - Management Concepts</t>
+  </si>
+  <si>
+    <t>MKTG 5050 - Marketing Internship</t>
+  </si>
+  <si>
+    <t>MNO 4372 - Leadership and Culture in the Southwest</t>
+  </si>
+  <si>
+    <t>ITOM 2308 - Information Systems for Management</t>
+  </si>
+  <si>
+    <t>SET 1 END</t>
+  </si>
+  <si>
+    <t>FINA 3310 - Finance Concepts</t>
+  </si>
+  <si>
+    <t>FINA 3320 - Financial Management</t>
+  </si>
+  <si>
+    <t>RMI 4360 - Insurance and Corporate Risk Management</t>
+  </si>
+  <si>
+    <t>RE 4389 - Real Estate Finance</t>
+  </si>
+  <si>
+    <t>CISB 5397 - Entrepreneurship: Starting a Business (STRA 5370 must be taken to complete B.B.A. core requirements)</t>
+  </si>
+  <si>
+    <t>BUSE 4334 - Global Energy Markets, Business, and Policy: Spikes, Myths, and Risks</t>
+  </si>
+  <si>
+    <t>BLI 3302 - Business Communications and Leader Development</t>
+  </si>
+  <si>
+    <t>RE 4382 - Real Estate Markets and Valuation</t>
+  </si>
+  <si>
+    <t>BUSE 4333 - Business Management, Planning, and Analysis in Energy</t>
+  </si>
+  <si>
+    <t>MKTG 5341 - Marketing Management</t>
+  </si>
+  <si>
+    <t>BL 3335 - Business Law</t>
+  </si>
+  <si>
+    <t>RE 4338 - Real Estate Law</t>
+  </si>
+  <si>
+    <t>ACCT 2310 - Accounting Concepts</t>
+  </si>
+  <si>
+    <t>ACCT 2302 - Introduction to Managerial Accounting</t>
+  </si>
+  <si>
+    <t>MKTG 3343 - Consumer Behavior</t>
+  </si>
+  <si>
+    <t>RE 3381 - Real Estate Fundamentals</t>
+  </si>
+  <si>
+    <t>BL 4340 - Law for the Entrepreneur</t>
+  </si>
+  <si>
+    <t>BUSE 3331 - From Prospect to Production to Kilowatts: The Business of Energy</t>
+  </si>
+  <si>
+    <t>ACCT 2301 - Introduction to Financial Accounting</t>
+  </si>
+  <si>
+    <t>MKTG 3342 - Marketing Research</t>
+  </si>
+  <si>
+    <t>MNO 3371 - Human Resources Management</t>
+  </si>
+  <si>
+    <t>Risk Management and Insurance, Concentration</t>
+  </si>
+  <si>
+    <t>Real Estate Finance, Concentration</t>
+  </si>
+  <si>
+    <t>Entrepreneurship, Concentration</t>
+  </si>
+  <si>
+    <t>Energy Management, Concentration</t>
+  </si>
+  <si>
+    <t>Business, Minor</t>
+  </si>
+  <si>
+    <t>Business Administration, Minor</t>
+  </si>
+  <si>
+    <t>Real Estate Finance, B.B.A.</t>
+  </si>
+  <si>
+    <t>Marketing, B.B.A.</t>
+  </si>
+  <si>
+    <t>Management, B.B.A.</t>
+  </si>
+  <si>
+    <t>Financial Consulting, B.B.A.</t>
   </si>
 </sst>
 </file>
@@ -172,11 +481,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,186 +802,871 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59ABBF32-F933-D147-A43C-0341800FB969}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="146.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="85" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="74.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="70.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="97.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="46.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
         <v>2</v>
       </c>
     </row>
